--- a/Test circuits/CTC/parte_3.xlsx
+++ b/Test circuits/CTC/parte_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cinvestav365-my.sharepoint.com/personal/saul_gonzalez_cinvestav_mx/Documents/Documentos 1/MATLAB/Proyecto Simulador de circuitos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adare\OneDrive\Documentos\Maestria Cinvestav\Microondas\proyecto\Circuitos de prueba\CTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_AD4D2F04E46CFB4ACB3E20592D96C87C693EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{487BCC18-1C02-4342-89D6-CE43B0B8916E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2416F57E-6F7A-4DB4-AF89-D70A1285E3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Nombre</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>Operantig Freq</t>
   </si>
 </sst>
 </file>
@@ -376,15 +382,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -400,8 +406,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -416,6 +428,12 @@
       </c>
       <c r="E2" s="3">
         <v>4.7000000000000003E-10</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
